--- a/submission/table_S9_family_stats_dn1to1.xlsx
+++ b/submission/table_S9_family_stats_dn1to1.xlsx
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006253448592974067</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="K2">
         <v>4.815880131246531e-06</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00916997293675609</v>
+        <v>0.007540923303292256</v>
       </c>
       <c r="K3">
         <v>4.815880131246531e-06</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02711053890012875</v>
+        <v>0.02299061982711054</v>
       </c>
       <c r="H4">
-        <v>0.0007050456746980565</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009196247930844216</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H5">
-        <v>0.004046349089571455</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="I5">
-        <v>0.0342560235423947</v>
+        <v>0.03577340445098399</v>
       </c>
       <c r="J5">
-        <v>0.01240179720959563</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="K5">
         <v>0.0002105781444464065</v>
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.1053890012874747</v>
+        <v>0.08129483170866286</v>
       </c>
       <c r="F6">
-        <v>0.02600239102446202</v>
+        <v>0.02151922015817546</v>
       </c>
       <c r="G6">
-        <v>0.30141622218135</v>
+        <v>0.2315615228986573</v>
       </c>
       <c r="H6">
-        <v>0.3955306235056097</v>
+        <v>0.4261541291153209</v>
       </c>
       <c r="I6">
-        <v>0.0002299061982711054</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J6">
-        <v>0.0257494942063638</v>
+        <v>0.01747287106860401</v>
       </c>
       <c r="K6">
         <v>0.0003091421962363524</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.01986389553062351</v>
+        <v>0.01747287106860401</v>
       </c>
       <c r="F7">
-        <v>0.03427901416222182</v>
+        <v>0.04294647783704249</v>
       </c>
       <c r="G7">
-        <v>0.03921280117711973</v>
+        <v>0.04193489056464962</v>
       </c>
       <c r="H7">
-        <v>0.002513641101097419</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="I7">
-        <v>0.002207099503402612</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="J7">
-        <v>0.0007094248403794109</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K7">
         <v>0.0003757973517738608</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.007816810741217584</v>
+        <v>0.005425786279198087</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.02151922015817546</v>
+        <v>0.007081110906750046</v>
       </c>
       <c r="F9">
-        <v>0.1340353135920545</v>
+        <v>0.1370240941695788</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0.006437373551590951</v>
       </c>
       <c r="I9">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.024751044431015</v>
+        <v>0.009380172889461099</v>
       </c>
       <c r="K9">
         <v>0.0004261819307543779</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005596573740770908</v>
+        <v>0.007173073386058488</v>
       </c>
       <c r="K10">
         <v>0.0004597664153506239</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02170314511679235</v>
+        <v>0.01563362148243517</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01171864736330434</v>
+        <v>0.008460548096376677</v>
       </c>
       <c r="K11">
         <v>0.0004685962087544135</v>
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.00128747471031819</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="F12">
-        <v>0.001034577892219974</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G12">
-        <v>0.005554533750229905</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0.000515658423566929</v>
@@ -1320,16 +1320,16 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.00168597878732144</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="F13">
-        <v>0.007494942063638036</v>
+        <v>0.005885598675740298</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0007663539942370179</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.002421678621788977</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0003310649255103917</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.003157378456256514</v>
+        <v>0.003862424130954571</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.001961866225246766</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="F16">
-        <v>0.002758874379253265</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="G16">
-        <v>0.001618539635828582</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="H16">
-        <v>0.0003371957574642879</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I16">
-        <v>0.001126540371528416</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="J16">
-        <v>0.0008670748049081689</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K16">
         <v>0.004089725070762996</v>
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.6410397890993808</v>
+        <v>0.6103549751701305</v>
       </c>
       <c r="F17">
-        <v>0.3735745815707192</v>
+        <v>0.4775611550487401</v>
       </c>
       <c r="G17">
-        <v>0.2693764943902888</v>
+        <v>0.3601250689718595</v>
       </c>
       <c r="H17">
-        <v>0.1264177548893385</v>
+        <v>0.1102630126908221</v>
       </c>
       <c r="I17">
-        <v>0.3491355526945006</v>
+        <v>0.3673901048372264</v>
       </c>
       <c r="J17">
-        <v>0.3894479623742085</v>
+        <v>0.4462019496045613</v>
       </c>
       <c r="K17">
         <v>0.009120495254967734</v>
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.00042915823677273</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F18">
-        <v>0.0005747654956777635</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="G18">
-        <v>0.001986389553062351</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="H18">
-        <v>0.0006437373551590951</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I18">
-        <v>0.002620930660290601</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="J18">
-        <v>0.0009984497753488006</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K18">
         <v>0.009447709341810944</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001234924722141937</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0.02963200519765544</v>
@@ -1854,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0001471399668935074</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H20">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.005097348853096508</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K20">
         <v>0.03401724340351953</v>
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.1042854515357734</v>
+        <v>0.08295015633621483</v>
       </c>
       <c r="F21">
-        <v>0.1795567408497333</v>
+        <v>0.1484274416038256</v>
       </c>
       <c r="G21">
-        <v>0.1751701305867206</v>
+        <v>0.1427257678867022</v>
       </c>
       <c r="H21">
-        <v>0.2417693581018944</v>
+        <v>0.1910060695236344</v>
       </c>
       <c r="I21">
-        <v>0.387897737723009</v>
+        <v>0.383943351112746</v>
       </c>
       <c r="J21">
-        <v>0.1356840694710844</v>
+        <v>0.09085892955674085</v>
       </c>
       <c r="K21">
         <v>0.04509602626624041</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03454723806020477</v>
+        <v>0.03209490527864631</v>
       </c>
       <c r="K22">
         <v>9.499591942068255e-06</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01480595916865919</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="K23">
         <v>9.499591942068255e-06</v>
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0170130586720618</v>
+        <v>0.01167923487217215</v>
       </c>
       <c r="H24">
-        <v>0.07007540923303292</v>
+        <v>0.07540923303292256</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0.000159862259553447</v>
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="E25">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009931947765311753</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I25">
-        <v>0.01633253632517933</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="J25">
-        <v>0.0003678499172337687</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0.0005256479327332506</v>
@@ -2310,22 +2310,22 @@
         </is>
       </c>
       <c r="E26">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.07573110171050211</v>
+        <v>0.05949972411256207</v>
       </c>
       <c r="H26">
-        <v>0.02313775979400405</v>
+        <v>0.006989148427441604</v>
       </c>
       <c r="I26">
-        <v>0.05510391760161854</v>
+        <v>0.04782048924038992</v>
       </c>
       <c r="J26">
-        <v>0.1366868984121145</v>
+        <v>0.1006069523634357</v>
       </c>
       <c r="K26">
         <v>0.0008682908994677581</v>
@@ -2397,22 +2397,22 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.8783467773719751</v>
+        <v>0.8942431487952915</v>
       </c>
       <c r="F27">
-        <v>0.756667279749862</v>
+        <v>0.7611734412359757</v>
       </c>
       <c r="G27">
-        <v>0.1552096744528232</v>
+        <v>0.1419900680522347</v>
       </c>
       <c r="H27">
-        <v>0.287070075409233</v>
+        <v>0.2223652749678131</v>
       </c>
       <c r="I27">
-        <v>0.5414015081846606</v>
+        <v>0.5663049475813867</v>
       </c>
       <c r="J27">
-        <v>0.4474281159953405</v>
+        <v>0.4908037520691558</v>
       </c>
       <c r="K27">
         <v>0.001307392949132894</v>
@@ -2484,22 +2484,22 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.09248797919020468</v>
+        <v>0.08754828030163693</v>
       </c>
       <c r="F28">
-        <v>0.2302510575685121</v>
+        <v>0.232113297774508</v>
       </c>
       <c r="G28">
-        <v>0.02524370057016737</v>
+        <v>0.01305867206179879</v>
       </c>
       <c r="H28">
-        <v>0.126209306602906</v>
+        <v>0.1392311936729814</v>
       </c>
       <c r="I28">
-        <v>0.1682913371344492</v>
+        <v>0.1565201397829686</v>
       </c>
       <c r="J28">
-        <v>0.3365826742688983</v>
+        <v>0.3133161670038624</v>
       </c>
       <c r="K28">
         <v>0.00922871247475335</v>
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.007908773220526025</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F29">
-        <v>0.0008276623137759794</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G29">
-        <v>0.7089617436086078</v>
+        <v>0.6529336030899393</v>
       </c>
       <c r="H29">
-        <v>0.3988964502482987</v>
+        <v>0.5442339525473607</v>
       </c>
       <c r="I29">
-        <v>0.001066764759977929</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="J29">
-        <v>0.0006130831953896144</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K29">
         <v>0.0163252255452198</v>
@@ -2658,22 +2658,22 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.002785149373341391</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F30">
-        <v>0.0007586904542946477</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G30">
+        <v>0.0002758874379253265</v>
+      </c>
+      <c r="H30">
+        <v>0.007173073386058488</v>
+      </c>
+      <c r="I30">
+        <v>0.00386242413095457</v>
+      </c>
+      <c r="J30">
         <v>0.0003678499172337686</v>
-      </c>
-      <c r="H30">
-        <v>0.03615964686407946</v>
-      </c>
-      <c r="I30">
-        <v>0.1096928453191098</v>
-      </c>
-      <c r="J30">
-        <v>0.0005211207160811722</v>
       </c>
       <c r="K30">
         <v>0.0163252255452198</v>
@@ -2745,22 +2745,22 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.001182374733965685</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F31">
-        <v>0.0007356998344675372</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="G31">
-        <v>0.001126540371528416</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H31">
-        <v>0.01258046716939489</v>
+        <v>0.01066764759977929</v>
       </c>
       <c r="I31">
-        <v>0.06904542946477837</v>
+        <v>0.006253448592974067</v>
       </c>
       <c r="J31">
-        <v>0.02381828214088652</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="K31">
         <v>0.03474574653421025</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.03149714916314144</v>
+        <v>0.02547360676843848</v>
       </c>
       <c r="K32">
         <v>1.943827558245307e-05</v>
@@ -2907,16 +2907,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.04344307522530808</v>
+        <v>0.03512966709582491</v>
       </c>
       <c r="H33">
-        <v>0.04301544969652382</v>
+        <v>0.04073937833363987</v>
       </c>
       <c r="I33">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1.943827558245307e-05</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.01142633805407394</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="F34">
-        <v>0.004755773929950866</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.001448409049107964</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>2.50617352792517e-05</v>
@@ -3069,16 +3069,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.01405186683832996</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H35">
-        <v>0.008207651278278463</v>
+        <v>0.002666911899944822</v>
       </c>
       <c r="I35">
-        <v>0.01946539145362025</v>
+        <v>0.01278278462387346</v>
       </c>
       <c r="J35">
-        <v>0.04053246275519588</v>
+        <v>0.03724480411991907</v>
       </c>
       <c r="K35">
         <v>7.350670684491623e-05</v>
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.01179418797130771</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="F36">
-        <v>0.0009196247930844216</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G36">
-        <v>0.0004414199006805223</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H36">
-        <v>0.162221813500092</v>
+        <v>0.1286555085525106</v>
       </c>
       <c r="I36">
-        <v>0.3778431733186193</v>
+        <v>0.4517196983630679</v>
       </c>
       <c r="J36">
-        <v>0.3048786095273129</v>
+        <v>0.3148795291521059</v>
       </c>
       <c r="K36">
         <v>7.350670684491623e-05</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.03538256391392312</v>
+        <v>0.008276623137759793</v>
       </c>
       <c r="K37">
         <v>0.0001803065340942086</v>
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.08922659554901599</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="F38">
-        <v>0.1105126251346594</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="G38">
-        <v>0.7751701305867207</v>
+        <v>0.7544601802464594</v>
       </c>
       <c r="H38">
-        <v>0.4207053522162957</v>
+        <v>0.4128195696155968</v>
       </c>
       <c r="I38">
-        <v>0.004199619888418858</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J38">
-        <v>0.06090215192201582</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K38">
         <v>0.0004762557400048614</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.005057936361964319</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="I39">
-        <v>0.01079026423885721</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="J39">
-        <v>0.001149530991355527</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K39">
         <v>0.0004762557400048614</v>
@@ -3462,22 +3462,22 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.1490481883391576</v>
+        <v>0.1575317270553614</v>
       </c>
       <c r="F40">
-        <v>0.2028166793662471</v>
+        <v>0.1986389553062351</v>
       </c>
       <c r="G40">
-        <v>0.008239838146036418</v>
+        <v>0.008644473054993563</v>
       </c>
       <c r="H40">
-        <v>0.06513242597020416</v>
+        <v>0.06115504874011403</v>
       </c>
       <c r="I40">
-        <v>0.0766353994237018</v>
+        <v>0.05499356262644841</v>
       </c>
       <c r="J40">
-        <v>0.08731837410336582</v>
+        <v>0.05122310097480227</v>
       </c>
       <c r="K40">
         <v>0.0004762557400048614</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.002528968180982159</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K41">
         <v>0.001093377230232179</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.009058304211881552</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.5300947213536877</v>
+        <v>0.6315983078903807</v>
       </c>
       <c r="F43">
-        <v>0.5494101263827216</v>
+        <v>0.5926062166636012</v>
       </c>
       <c r="G43">
-        <v>0.09891484274416038</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="H43">
-        <v>0.06375298878057753</v>
+        <v>0.07127092146404268</v>
       </c>
       <c r="I43">
-        <v>0.2701244558886641</v>
+        <v>0.2187787382747839</v>
       </c>
       <c r="J43">
-        <v>0.2611504506161486</v>
+        <v>0.2451719698363068</v>
       </c>
       <c r="K43">
         <v>0.001197485150875716</v>
@@ -3750,22 +3750,22 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.009771013426521978</v>
+        <v>0.01094353503770462</v>
       </c>
       <c r="F44">
-        <v>0.004177724060012086</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G44">
-        <v>0.0004782048924038992</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H44">
-        <v>0.131644289130035</v>
+        <v>0.1116424498804488</v>
       </c>
       <c r="I44">
-        <v>0.09607013671755257</v>
+        <v>0.04892403899209122</v>
       </c>
       <c r="J44">
-        <v>0.04660198638955306</v>
+        <v>0.008460548096376679</v>
       </c>
       <c r="K44">
         <v>0.001197485150875716</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.0002452332781558458</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.01262185028508368</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I46">
-        <v>0.003555882533259763</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.004184292808534118</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4032,22 +4032,22 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.1229308442155601</v>
+        <v>0.02823248114769174</v>
       </c>
       <c r="F48">
-        <v>0.03289629259833417</v>
+        <v>0.01563362148243517</v>
       </c>
       <c r="G48">
-        <v>0.003384219238550671</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H48">
-        <v>0.03398013610446938</v>
+        <v>0.01140334743424683</v>
       </c>
       <c r="I48">
-        <v>0.06474158543314328</v>
+        <v>0.06694868493654589</v>
       </c>
       <c r="J48">
-        <v>0.006069523634357183</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K48">
         <v>0.04470457352907858</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.0006667279749862056</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
